--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1374.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1374.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.241818900069791</v>
+        <v>1.251553416252136</v>
       </c>
       <c r="B1">
-        <v>2.549833086644709</v>
+        <v>2.636661052703857</v>
       </c>
       <c r="C1">
-        <v>3.499089720449981</v>
+        <v>8.29698371887207</v>
       </c>
       <c r="D1">
-        <v>3.117270589685305</v>
+        <v>2.103338003158569</v>
       </c>
       <c r="E1">
-        <v>1.111517406747905</v>
+        <v>1.134089589118958</v>
       </c>
     </row>
   </sheetData>
